--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>005939</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>工银瑞信新能源汽车主题混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005940</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>202027</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>93.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>110025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达资源行业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>168105</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>400015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>东方新能源汽车主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>62.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>161028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>富国中证新能源汽车指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>78.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>515030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>华夏中证新能源汽车ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>61.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>005939</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>工银瑞信新能源汽车主题混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>36.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>510500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>南方中证500ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>377.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>009644</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>东方阿尔法优势产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2882</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006611</t>
+          <t>005940</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>人保中证500指数</t>
+          <t>工银瑞信新能源汽车主题混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>400015</t>
+          <t>160225</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方新能源汽车主题混合</t>
+          <t>国泰国证新能源汽车指数（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010805</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西藏东财中证新能源汽车指数A</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010806</t>
+          <t>159806</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西藏东财中证新能源汽车指数C</t>
+          <t>国泰中证新能源汽车ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510500</t>
+          <t>001245</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中证500ETF</t>
+          <t>工银瑞信生态环境行业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510530</t>
+          <t>009645</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信中证500ETF</t>
+          <t>东方阿尔法优势产业混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>510550</t>
+          <t>159824</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正富邦中证500ETF</t>
+          <t>博时中证新能源汽车ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>510570</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业中证500ETF</t>
+          <t>华夏中证500ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.10</t>
+          <t>35.62</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>510590</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安中证500ETF</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001245</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银瑞信生态环境行业股票</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010992</t>
+          <t>159922</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数A</t>
+          <t>嘉实中证500ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010993</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>010805</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏中证500ETF</t>
+          <t>西藏东财中证新能源汽车指数A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>97.49</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515030</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏中证新能源汽车ETF</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>99.01</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>515190</t>
+          <t>008640</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银证券中证500ETF</t>
+          <t>方正富邦科技创新混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>515530</t>
+          <t>159820</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰康中证500ETF</t>
+          <t>天弘中证500ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1836,15 +2316,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>86.68</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159806</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国泰中证新能源汽车ETF</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>159820</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天弘中证500ETF</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>159824</t>
+          <t>510590</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>博时中证新能源汽车ETF</t>
+          <t>平安中证500ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159918</t>
+          <t>008641</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实中创400ETF</t>
+          <t>方正富邦科技创新混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>159922</t>
+          <t>010806</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实中证500ETF</t>
+          <t>西藏东财中证新能源汽车指数C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>98.33</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>159982</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鹏华中证500ETF</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>97.16</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>160225</t>
+          <t>010992</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国泰国证新能源汽车指数（LOF）</t>
+          <t>西藏东财中证500指数A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>161028</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>富国中证新能源汽车指数</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2218,25 +2838,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008640</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>方正富邦科技创新混合A</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>008641</t>
+          <t>510530</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>方正富邦科技创新混合C</t>
+          <t>工银瑞信中证500ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>159982</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>鹏华中证500ETF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>9</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>159918</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>嘉实中创400ETF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>9</v>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005939</t>
+          <t>510570</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
+          <t>兴业中证500ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>005940</t>
+          <t>010993</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
+          <t>西藏东财中证500指数C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>6</v>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>515190</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>中银证券中证500ETF</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>9</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>515530</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>泰康中证500ETF</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2508,15 +3228,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>009644</t>
+          <t>006611</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东方阿尔法优势产业混合A</t>
+          <t>人保中证500指数</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>5</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>009645</t>
+          <t>159999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东方阿尔法优势产业混合C</t>
+          <t>永赢中证500ETF</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>5</v>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>510550</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>方正富邦中证500ETF</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>5</v>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,2870 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5650</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7848</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6968</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信生态环境行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6272,4 +6273,2678 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8740</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5698</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8947,4 +8948,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8956,7 +8957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8967,17 +8968,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8987,14 +9008,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.07</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9003,14 +9046,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.01</v>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9019,14 +9084,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.02</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9035,13 +9122,2393 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11407,7 +11408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11418,17 +11419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11438,14 +11459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.17</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11454,14 +11497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.07</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11470,14 +11535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.01</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11486,14 +11573,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.02</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -11502,13 +11611,1991 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4946</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13478,7 +13479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13489,17 +13490,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13509,14 +13530,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.609999999999999</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13525,14 +13568,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.17</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13541,14 +13606,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.07</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -13557,14 +13644,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.01</v>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13573,14 +13682,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.02</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -13589,13 +13720,1283 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>12.38</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>9.609999999999999</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>9.17</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>27.07</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>23.01</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>28.02</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.81</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6503,7 +7488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9177,7 +10162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12043,7 +13028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14189,7 +15174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
+++ b/数据整理/stocks/A股/深证主板/002340-格林美.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>8.58</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>12.38</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>9.609999999999999</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>9.17</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>27.07</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>23.01</v>
+        <v>27.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>28.02</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,846 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1450,2418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4817</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013116</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2968,7 +6213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5038,7 +8283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7488,7 +10733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10162,7 +13407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13028,7 +16273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15172,820 +18417,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4078</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005939</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3897</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005940</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信新能源汽车主题混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7430</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6271</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>110025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达资源行业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4054</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2367</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>168105</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1656</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1500</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>159918</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实中创400ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>99.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>